--- a/Plates.xlsx
+++ b/Plates.xlsx
@@ -19,7 +19,7 @@
     <t>License plate</t>
   </si>
   <si>
-    <t>MHOZDW8351
+    <t>HR26DA2330
 _x000C_</t>
   </si>
 </sst>
